--- a/rawdata/Segments2.xlsx
+++ b/rawdata/Segments2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Holly\Desktop\rail_simulator\rawdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA19AD37-9AF1-484F-9DE1-8FC9A13BFD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB18774-6034-4B9D-97F6-135B99F6D837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="37275" yWindow="1545" windowWidth="17280" windowHeight="8970" xr2:uid="{9BAFB3FB-CF0E-41D0-A3EB-B7AAE1AD5716}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9BAFB3FB-CF0E-41D0-A3EB-B7AAE1AD5716}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
   <si>
     <t>From</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>km/hr</t>
+  </si>
+  <si>
+    <t>Sligo Loop</t>
   </si>
 </sst>
 </file>
@@ -139,7 +142,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -158,7 +161,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -166,13 +169,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68077957-244A-425C-9655-A64E69CC14F9}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L14"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,7 +552,7 @@
     <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -559,31 +591,32 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>220077</v>
+      <c r="B2" s="2">
+        <v>217663.23499999999</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>209617</v>
+        <v>32</v>
+      </c>
+      <c r="D2" s="2">
+        <v>217260.9</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2">
-        <v>10460</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="2">
+        <f>B2-D2</f>
+        <v>402.33499999999185</v>
+      </c>
+      <c r="G2" s="3">
         <v>487</v>
       </c>
       <c r="H2" s="1">
         <f>F2/G2</f>
-        <v>21.478439425051334</v>
+        <v>0.82614989733057875</v>
       </c>
       <c r="I2" s="1">
         <f>(F2/1000)</f>
-        <v>10.46</v>
+        <v>0.40233499999999184</v>
       </c>
       <c r="J2" s="1">
         <f>G2/3600</f>
@@ -591,570 +624,587 @@
       </c>
       <c r="K2" s="1">
         <f>I2/J2</f>
-        <v>77.322381930184818</v>
+        <v>2.9741396303900833</v>
       </c>
       <c r="L2" s="1">
         <f>(H2*3600)/1000</f>
-        <v>77.322381930184804</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.9741396303900833</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2">
+        <v>217260.9</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>209617</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>197546</v>
+      <c r="D3" s="2">
+        <v>207202.52499999999</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="F3">
-        <v>12071</v>
-      </c>
-      <c r="G3">
-        <v>515</v>
-      </c>
-      <c r="H3" s="1">
-        <f t="shared" ref="H3:H14" si="0">F3/G3</f>
-        <v>23.438834951456311</v>
-      </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I14" si="1">(F3/1000)</f>
-        <v>12.071</v>
-      </c>
-      <c r="J3" s="1">
-        <f t="shared" ref="J3:J14" si="2">G3/3600</f>
-        <v>0.14305555555555555</v>
-      </c>
-      <c r="K3" s="1">
-        <f t="shared" ref="K3:K14" si="3">I3/J3</f>
-        <v>84.379805825242727</v>
-      </c>
-      <c r="L3" s="1">
-        <f t="shared" ref="L3:L14" si="4">(H3*3600)/1000</f>
-        <v>84.379805825242713</v>
-      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F19" si="0">B3-D3</f>
+        <v>10058.375</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>207202.52499999999</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>197546</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>175418</v>
+      <c r="D4" s="2">
+        <v>195132.47500000001</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="F4">
-        <v>22128</v>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>12070.049999999988</v>
       </c>
       <c r="G4">
-        <v>832</v>
+        <v>515</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" si="0"/>
-        <v>26.596153846153847</v>
+        <f t="shared" ref="H4:H15" si="1">F4/G4</f>
+        <v>23.436990291262113</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="1"/>
-        <v>22.128</v>
+        <f t="shared" ref="I4:I15" si="2">(F4/1000)</f>
+        <v>12.070049999999988</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="2"/>
-        <v>0.2311111111111111</v>
+        <f t="shared" ref="J4:J15" si="3">G4/3600</f>
+        <v>0.14305555555555555</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" si="3"/>
-        <v>95.746153846153845</v>
+        <f t="shared" ref="K4:K15" si="4">I4/J4</f>
+        <v>84.373165048543612</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" si="4"/>
-        <v>95.746153846153845</v>
+        <f t="shared" ref="L4:L15" si="5">(H4*3600)/1000</f>
+        <v>84.373165048543612</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>195132.47500000001</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>175418</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>161739</v>
+      <c r="D5" s="2">
+        <v>173004.05000000002</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="F5">
-        <v>13679</v>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>22128.424999999988</v>
       </c>
       <c r="G5">
-        <v>632</v>
+        <v>832</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="0"/>
-        <v>21.643987341772153</v>
+        <f t="shared" si="1"/>
+        <v>26.596664663461524</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="1"/>
-        <v>13.679</v>
+        <f t="shared" si="2"/>
+        <v>22.128424999999989</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="2"/>
-        <v>0.17555555555555555</v>
+        <f t="shared" si="3"/>
+        <v>0.2311111111111111</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="3"/>
-        <v>77.91835443037975</v>
+        <f t="shared" si="4"/>
+        <v>95.747992788461502</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="4"/>
-        <v>77.91835443037975</v>
+        <f t="shared" si="5"/>
+        <v>95.747992788461488</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>173004.05000000002</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>161739</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>161336.33499999999</v>
+      <c r="D6" s="2">
+        <v>159324.66</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="F6">
-        <v>402.66500000000002</v>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>13679.390000000014</v>
       </c>
       <c r="G6">
-        <v>40</v>
+        <v>632</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="0"/>
-        <v>10.066625</v>
+        <f t="shared" si="1"/>
+        <v>21.644604430379768</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="1"/>
-        <v>0.402665</v>
+        <f t="shared" si="2"/>
+        <v>13.679390000000014</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="2"/>
-        <v>1.1111111111111112E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.17555555555555555</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="3"/>
-        <v>36.239849999999997</v>
+        <f t="shared" si="4"/>
+        <v>77.920575949367176</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="4"/>
-        <v>36.239849999999997</v>
+        <f t="shared" si="5"/>
+        <v>77.920575949367162</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
+        <v>159324.66</v>
+      </c>
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>161336.33499999999</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>144261</v>
+      <c r="D7" s="2">
+        <v>158922.32500000001</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="1">
-        <v>17075.334999999999</v>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>402.33499999999185</v>
       </c>
       <c r="G7">
-        <v>617</v>
+        <v>40</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="0"/>
-        <v>27.674773095623987</v>
+        <f t="shared" si="1"/>
+        <v>10.058374999999796</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="1"/>
-        <v>17.075334999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.40233499999999184</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="2"/>
-        <v>0.1713888888888889</v>
+        <f t="shared" si="3"/>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="3"/>
-        <v>99.62918314424634</v>
+        <f t="shared" si="4"/>
+        <v>36.210149999999267</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="4"/>
-        <v>99.629183144246355</v>
+        <f t="shared" si="5"/>
+        <v>36.210149999999267</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>158922.32500000001</v>
+      </c>
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>144261</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>126558</v>
+      <c r="D8" s="2">
+        <v>142024.255</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
-      <c r="F8">
-        <v>17703</v>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>16898.070000000007</v>
       </c>
       <c r="G8">
-        <v>672</v>
+        <v>617</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="0"/>
-        <v>26.34375</v>
+        <f t="shared" si="1"/>
+        <v>27.387471636953009</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="1"/>
-        <v>17.702999999999999</v>
+        <f t="shared" si="2"/>
+        <v>16.898070000000008</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="2"/>
-        <v>0.18666666666666668</v>
+        <f t="shared" si="3"/>
+        <v>0.1713888888888889</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="3"/>
-        <v>94.837499999999991</v>
+        <f t="shared" si="4"/>
+        <v>98.594897893030833</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="4"/>
-        <v>94.837500000000006</v>
+        <f t="shared" si="5"/>
+        <v>98.594897893030833</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2">
+        <v>142024.255</v>
+      </c>
+      <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
-        <v>126558</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9">
-        <v>113056</v>
+      <c r="D9" s="2">
+        <v>124321.515</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
       </c>
-      <c r="F9">
-        <v>13502</v>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>17702.740000000005</v>
       </c>
       <c r="G9">
-        <v>622</v>
+        <v>672</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="0"/>
-        <v>21.707395498392284</v>
+        <f t="shared" si="1"/>
+        <v>26.343363095238104</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="1"/>
-        <v>13.502000000000001</v>
+        <f t="shared" si="2"/>
+        <v>17.702740000000006</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="2"/>
-        <v>0.17277777777777778</v>
+        <f t="shared" si="3"/>
+        <v>0.18666666666666668</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="3"/>
-        <v>78.146623794212218</v>
+        <f t="shared" si="4"/>
+        <v>94.836107142857173</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="4"/>
-        <v>78.146623794212218</v>
+        <f t="shared" si="5"/>
+        <v>94.836107142857173</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <v>124321.515</v>
+      </c>
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
-        <v>113056</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>84716</v>
+      <c r="D10" s="2">
+        <v>104204.765</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
       </c>
-      <c r="F10">
-        <v>28340</v>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>20116.75</v>
       </c>
       <c r="G10">
-        <v>1045</v>
+        <v>622</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="0"/>
-        <v>27.119617224880383</v>
+        <f t="shared" si="1"/>
+        <v>32.342041800643088</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="1"/>
-        <v>28.34</v>
+        <f t="shared" si="2"/>
+        <v>20.11675</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="2"/>
-        <v>0.2902777777777778</v>
+        <f t="shared" si="3"/>
+        <v>0.17277777777777778</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="3"/>
-        <v>97.630622009569365</v>
+        <f t="shared" si="4"/>
+        <v>116.43135048231511</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="4"/>
-        <v>97.630622009569365</v>
+        <f t="shared" si="5"/>
+        <v>116.43135048231511</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2">
+        <v>104204.765</v>
+      </c>
+      <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
-        <v>84716</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>70006</v>
+      <c r="D11" s="2">
+        <v>82478.674999999988</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
       </c>
-      <c r="F11">
-        <v>14710</v>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>21726.090000000011</v>
       </c>
       <c r="G11">
-        <v>548</v>
+        <v>1045</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="0"/>
-        <v>26.843065693430656</v>
+        <f t="shared" si="1"/>
+        <v>20.790516746411495</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="1"/>
-        <v>14.71</v>
+        <f t="shared" si="2"/>
+        <v>21.72609000000001</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="2"/>
-        <v>0.15222222222222223</v>
+        <f t="shared" si="3"/>
+        <v>0.2902777777777778</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="3"/>
-        <v>96.635036496350367</v>
+        <f t="shared" si="4"/>
+        <v>74.845860287081365</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="4"/>
-        <v>96.635036496350367</v>
+        <f t="shared" si="5"/>
+        <v>74.845860287081379</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2">
+        <v>82478.674999999988</v>
+      </c>
+      <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="B12">
-        <v>70006</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12">
-        <v>46269</v>
+      <c r="D12" s="2">
+        <v>68799.285000000003</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
       </c>
-      <c r="F12">
-        <v>23737</v>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>13679.389999999985</v>
       </c>
       <c r="G12">
-        <v>854</v>
+        <v>548</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="0"/>
-        <v>27.795081967213115</v>
+        <f t="shared" si="1"/>
+        <v>24.962390510948879</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="1"/>
-        <v>23.736999999999998</v>
+        <f t="shared" si="2"/>
+        <v>13.679389999999986</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="2"/>
-        <v>0.23722222222222222</v>
+        <f t="shared" si="3"/>
+        <v>0.15222222222222223</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="3"/>
-        <v>100.06229508196721</v>
+        <f t="shared" si="4"/>
+        <v>89.864605839415958</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="4"/>
-        <v>100.06229508196721</v>
+        <f t="shared" si="5"/>
+        <v>89.864605839415958</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2">
+        <v>68799.285000000003</v>
+      </c>
+      <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="B13">
-        <v>46269</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13">
-        <v>35003</v>
+      <c r="D13" s="2">
+        <v>43854.514999999999</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
       </c>
-      <c r="F13">
-        <v>11266</v>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>24944.770000000004</v>
       </c>
       <c r="G13">
-        <v>542</v>
+        <v>854</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="0"/>
-        <v>20.785977859778598</v>
+        <f t="shared" si="1"/>
+        <v>29.209332552693212</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="1"/>
-        <v>11.266</v>
+        <f t="shared" si="2"/>
+        <v>24.944770000000005</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="2"/>
-        <v>0.15055555555555555</v>
+        <f t="shared" si="3"/>
+        <v>0.23722222222222222</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="3"/>
-        <v>74.829520295202954</v>
+        <f t="shared" si="4"/>
+        <v>105.15359718969557</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="4"/>
-        <v>74.829520295202954</v>
+        <f t="shared" si="5"/>
+        <v>105.15359718969556</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2">
+        <v>43854.514999999999</v>
+      </c>
+      <c r="C14" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
-        <v>35003</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14">
-        <v>28163</v>
+      <c r="D14" s="2">
+        <v>32589.134999999998</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
       </c>
-      <c r="F14">
-        <v>6840</v>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>11265.380000000001</v>
       </c>
       <c r="G14">
-        <v>321</v>
+        <v>542</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="0"/>
-        <v>21.308411214953271</v>
+        <f t="shared" si="1"/>
+        <v>20.784833948339486</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="1"/>
-        <v>6.84</v>
+        <f t="shared" si="2"/>
+        <v>11.26538</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="2"/>
-        <v>8.9166666666666672E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.15055555555555555</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="3"/>
-        <v>76.710280373831765</v>
+        <f t="shared" si="4"/>
+        <v>74.825402214022148</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="4"/>
-        <v>76.710280373831779</v>
+        <f t="shared" si="5"/>
+        <v>74.825402214022148</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2">
+        <v>32589.134999999998</v>
+      </c>
+      <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="B15">
-        <v>28163</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15">
-        <v>22128</v>
+      <c r="D15" s="2">
+        <v>25749.439999999999</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15">
-        <v>6035</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>6839.6949999999997</v>
+      </c>
+      <c r="G15">
+        <v>321</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
+        <v>21.307461059190029</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="2"/>
+        <v>6.8396949999999999</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="3"/>
+        <v>8.9166666666666672E-2</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="4"/>
+        <v>76.706859813084108</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="5"/>
+        <v>76.706859813084094</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2">
+        <v>25749.439999999999</v>
+      </c>
+      <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="B16">
-        <v>22128</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16">
-        <v>4426</v>
+      <c r="D16" s="2">
+        <v>19714.414999999997</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
       </c>
-      <c r="F16">
-        <v>17702</v>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>6035.0250000000015</v>
       </c>
       <c r="G16" t="s">
         <v>21</v>
@@ -1162,22 +1212,23 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2">
+        <v>19714.414999999997</v>
+      </c>
+      <c r="C17" t="s">
         <v>22</v>
       </c>
-      <c r="B17">
-        <v>4426</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17">
-        <v>1600</v>
+      <c r="D17" s="2">
+        <v>4425.6849999999995</v>
       </c>
       <c r="E17" t="s">
         <v>20</v>
       </c>
-      <c r="F17">
-        <v>2826</v>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>15288.729999999998</v>
       </c>
       <c r="G17" t="s">
         <v>21</v>
@@ -1185,24 +1236,49 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4425.6849999999995</v>
+      </c>
+      <c r="C18" t="s">
         <v>23</v>
       </c>
-      <c r="B18">
-        <v>1600</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
+      <c r="D18" s="2">
+        <v>1609.34</v>
       </c>
       <c r="E18" t="s">
         <v>20</v>
       </c>
-      <c r="F18">
-        <v>1600</v>
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>2816.3449999999993</v>
       </c>
       <c r="G18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1609.34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>1609.34</v>
+      </c>
+      <c r="G19" t="s">
         <v>21</v>
       </c>
     </row>
